--- a/Forecast/Predictive/Results/RFE_Metrics_Target.xlsx
+++ b/Forecast/Predictive/Results/RFE_Metrics_Target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PycharmProjects\Mestrado\Forecast\Predictive\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138E0B6-FB7B-48F4-812D-BDF8CCBE1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59218092-F8CE-463A-8F30-66A06925E092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>N_Features</t>
   </si>
@@ -41,45 +41,51 @@
     <t>Features_Selected</t>
   </si>
   <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev P60', 'Elev L1', 'Elev stddev']</t>
-  </si>
-  <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev P60', 'Elev stddev']</t>
-  </si>
-  <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev SQRT mean SQ', 'Elev P60', 'Elev variance', 'Elev L1', 'Elev mean', 'Elev stddev']</t>
-  </si>
-  <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev P60', 'Elev variance', 'Elev L1', 'Elev stddev']</t>
-  </si>
-  <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev SQRT mean SQ', 'Elev P60', 'Elev variance', 'Elev L1', 'Elev stddev']</t>
-  </si>
-  <si>
-    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev P60', 'Elev L1', 'Elev stddev']</t>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev SQRT mean SQ', 'Elev variance', 'Elev stddev', 'Elev P60', 'Elev L2', 'Elev L1', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev SQRT mean SQ', 'Elev variance', 'Elev stddev', 'Elev P60', 'Elev L2', 'Elev L1', 'Elev mean', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev SQRT mean SQ', 'Elev stddev', 'Elev P60', 'Elev L2', 'Elev L1', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev stddev', 'Elev P60', 'Elev L1', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev maximum', 'Elev P70', 'Elev stddev', 'Elev P60', 'Elev L2', 'Elev L1', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev stddev', 'Elev P60', 'Elev L1', 'Elev AAD']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev stddev', 'Elev P60', 'Elev L1']</t>
+  </si>
+  <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev stddev', 'Elev P60']</t>
+  </si>
+  <si>
+    <t>['Elev P80', 'Elev P95', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70']</t>
   </si>
   <si>
     <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70', 'Elev P60']</t>
   </si>
   <si>
+    <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70']</t>
+  </si>
+  <si>
     <t>['Elev P90', 'Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70']</t>
   </si>
   <si>
-    <t>['Elev P80', 'Elev P95', 'Elev P99', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70']</t>
-  </si>
-  <si>
-    <t>['Elev P80', 'Elev P95', 'Elev P75', 'Elev CURT mean CUBE', 'Elev P70']</t>
-  </si>
-  <si>
     <t>['Elev P95', 'Elev P75', 'Elev P70']</t>
   </si>
   <si>
+    <t>['Elev P95', 'Elev P75']</t>
+  </si>
+  <si>
     <t>['Elev P80', 'Elev P95', 'Elev P75', 'Elev P70']</t>
   </si>
   <si>
-    <t>['Elev P75', 'Elev P70']</t>
-  </si>
-  <si>
     <t>['Elev P75']</t>
   </si>
   <si>
@@ -116,31 +122,37 @@
     <t>Elev CURT mean CUBE</t>
   </si>
   <si>
+    <t>Elev maximum</t>
+  </si>
+  <si>
     <t>Elev P70</t>
   </si>
   <si>
+    <t>Elev SQRT mean SQ</t>
+  </si>
+  <si>
+    <t>Elev variance</t>
+  </si>
+  <si>
+    <t>Elev stddev</t>
+  </si>
+  <si>
     <t>Elev P60</t>
   </si>
   <si>
-    <t>Elev stddev</t>
+    <t>Elev L2</t>
   </si>
   <si>
     <t>Elev L1</t>
   </si>
   <si>
+    <t>Elev AAD</t>
+  </si>
+  <si>
+    <t>Elev mean</t>
+  </si>
+  <si>
     <t>Nao</t>
-  </si>
-  <si>
-    <t>Elev maximum</t>
-  </si>
-  <si>
-    <t>Elev variance</t>
-  </si>
-  <si>
-    <t>Elev SQRT mean SQ</t>
-  </si>
-  <si>
-    <t>Elev mean</t>
   </si>
 </sst>
 </file>
@@ -162,18 +174,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -203,12 +209,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +233,987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Metrics!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Metrics!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>44.957497509547842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.148305246115378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.218889151960923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.247444245276817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.280092288894757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.62096323153294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.8593346595189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.32472475802836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.744695661490717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.812359855747303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.068003472783772</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.410999892805947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.165816508559431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.356471612289013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.453062922003348</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.950841315702029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49EB-48D0-AD19-0C83651B815B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1474396031"/>
+        <c:axId val="1474388831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1474396031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474388831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1474388831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1474396031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B78CCF5-C30B-65BE-4914-5C512D16F844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,471 +1501,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44.957497509547842</v>
+      </c>
+      <c r="C2">
+        <v>34.408851138582023</v>
+      </c>
+      <c r="D2">
+        <v>-0.98311827886512948</v>
+      </c>
+      <c r="E2">
+        <v>0.72596247029314864</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45.148305246115378</v>
+      </c>
+      <c r="C3">
+        <v>34.542980312334208</v>
+      </c>
+      <c r="D3">
+        <v>-1.0073704089222539</v>
+      </c>
+      <c r="E3">
+        <v>0.72363140452849462</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45.218889151960923</v>
+      </c>
+      <c r="C4">
+        <v>34.634899730109822</v>
+      </c>
+      <c r="D4">
+        <v>-0.88901061978044438</v>
+      </c>
+      <c r="E4">
+        <v>0.7227665914035093</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45.247444245276817</v>
+      </c>
+      <c r="C5">
+        <v>34.545721333152059</v>
+      </c>
+      <c r="D5">
+        <v>-0.92491578062647639</v>
+      </c>
+      <c r="E5">
+        <v>0.72241634284335543</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45.280092288894757</v>
+      </c>
+      <c r="C6">
+        <v>34.79824412061653</v>
+      </c>
+      <c r="D6">
+        <v>-0.99578884572866744</v>
+      </c>
+      <c r="E6">
+        <v>0.72201562041498524</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45.62096323153294</v>
+      </c>
+      <c r="C7">
+        <v>34.990841361766762</v>
+      </c>
+      <c r="D7">
+        <v>-0.91170917177453781</v>
+      </c>
+      <c r="E7">
+        <v>0.71781450421556214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45.8593346595189</v>
+      </c>
+      <c r="C8">
+        <v>35.203037044455257</v>
+      </c>
+      <c r="D8">
+        <v>-0.81281217613137957</v>
+      </c>
+      <c r="E8">
+        <v>0.71485793837766831</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>46.32472475802836</v>
+      </c>
+      <c r="C9">
+        <v>35.481248218661598</v>
+      </c>
+      <c r="D9">
+        <v>-0.78675175464010705</v>
+      </c>
+      <c r="E9">
+        <v>0.70904121040221768</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>46.744695661490717</v>
+      </c>
+      <c r="C10">
+        <v>36.411927495000427</v>
+      </c>
+      <c r="D10">
+        <v>-0.64492113785247818</v>
+      </c>
+      <c r="E10">
+        <v>0.7037417457700319</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>46.812359855747303</v>
+      </c>
+      <c r="C11">
+        <v>36.059683397292233</v>
+      </c>
+      <c r="D11">
+        <v>-0.67172068000111185</v>
+      </c>
+      <c r="E11">
+        <v>0.70288344155410143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>47.068003472783772</v>
+      </c>
+      <c r="C12">
+        <v>36.663244119760471</v>
+      </c>
+      <c r="D12">
+        <v>-0.73119580755235181</v>
+      </c>
+      <c r="E12">
+        <v>0.6996294568921837</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>47.410999892805947</v>
+      </c>
+      <c r="C13">
+        <v>36.50289378666902</v>
+      </c>
+      <c r="D13">
+        <v>-0.27953704041979188</v>
+      </c>
+      <c r="E13">
+        <v>0.69523575409432437</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>48.165816508559431</v>
+      </c>
+      <c r="C14">
+        <v>37.225282976975919</v>
+      </c>
+      <c r="D14">
+        <v>-0.38460146969367259</v>
+      </c>
+      <c r="E14">
+        <v>0.68545438159527472</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>48.356471612289013</v>
+      </c>
+      <c r="C15">
+        <v>37.518337498944547</v>
+      </c>
+      <c r="D15">
+        <v>-0.29178420866898602</v>
+      </c>
+      <c r="E15">
+        <v>0.68295931678932753</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>48.453062922003348</v>
+      </c>
+      <c r="C16">
+        <v>37.46497889831781</v>
+      </c>
+      <c r="D16">
+        <v>-0.74397137143007086</v>
+      </c>
+      <c r="E16">
+        <v>0.68169148401896407</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>54.950841315702029</v>
+      </c>
+      <c r="C17">
+        <v>42.528507914987358</v>
+      </c>
+      <c r="D17">
+        <v>0.75227318072156268</v>
+      </c>
+      <c r="E17">
+        <v>0.59059374072075133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>17.442986820329281</v>
-      </c>
-      <c r="C2">
-        <v>13.32881520454929</v>
-      </c>
-      <c r="D2">
-        <v>-0.77311106471673019</v>
-      </c>
-      <c r="E2">
-        <v>0.96014572872228632</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>17.54648862707981</v>
-      </c>
-      <c r="C3">
-        <v>13.387206461963739</v>
-      </c>
-      <c r="D3">
-        <v>-0.61624948087852094</v>
-      </c>
-      <c r="E3">
-        <v>0.95967135728664565</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>17.580534637248469</v>
-      </c>
-      <c r="C4">
-        <v>13.39889496748687</v>
-      </c>
-      <c r="D4">
-        <v>-0.5659141168444477</v>
-      </c>
-      <c r="E4">
-        <v>0.95951470355661306</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>17.594903501750789</v>
-      </c>
-      <c r="C5">
-        <v>13.391768436573891</v>
-      </c>
-      <c r="D5">
-        <v>-0.61704328091545346</v>
-      </c>
-      <c r="E5">
-        <v>0.95944849789463105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>17.615440373280961</v>
-      </c>
-      <c r="C6">
-        <v>13.39158062854305</v>
-      </c>
-      <c r="D6">
-        <v>-0.53306880844961613</v>
-      </c>
-      <c r="E6">
-        <v>0.9593537787603047</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>17.72938592343996</v>
-      </c>
-      <c r="C7">
-        <v>13.479934246550711</v>
-      </c>
-      <c r="D7">
-        <v>-0.77849249090904815</v>
-      </c>
-      <c r="E7">
-        <v>0.95882623755338359</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>17.988445375567728</v>
-      </c>
-      <c r="C8">
-        <v>13.758447638690971</v>
-      </c>
-      <c r="D8">
-        <v>-0.5176567573111891</v>
-      </c>
-      <c r="E8">
-        <v>0.95761419549098281</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>18.124778592356261</v>
-      </c>
-      <c r="C9">
-        <v>13.68726647316524</v>
-      </c>
-      <c r="D9">
-        <v>-0.62377534106800769</v>
-      </c>
-      <c r="E9">
-        <v>0.95696928252182145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>18.13763195177707</v>
-      </c>
-      <c r="C10">
-        <v>13.746116728334959</v>
-      </c>
-      <c r="D10">
-        <v>-0.56268243321796951</v>
-      </c>
-      <c r="E10">
-        <v>0.95690822959482114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>18.168282243698709</v>
-      </c>
-      <c r="C11">
-        <v>13.784709057810041</v>
-      </c>
-      <c r="D11">
-        <v>-0.5570026894687603</v>
-      </c>
-      <c r="E11">
-        <v>0.95676246731261649</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>18.39066601605931</v>
-      </c>
-      <c r="C12">
-        <v>14.03978583916904</v>
-      </c>
-      <c r="D12">
-        <v>-0.76521933967980904</v>
-      </c>
-      <c r="E12">
-        <v>0.95569751550842053</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>18.46026016218633</v>
-      </c>
-      <c r="C13">
-        <v>14.197244410341661</v>
-      </c>
-      <c r="D13">
-        <v>-0.72862473577934816</v>
-      </c>
-      <c r="E13">
-        <v>0.95536158125752246</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>19.722390064599619</v>
-      </c>
-      <c r="C14">
-        <v>15.002555593696719</v>
-      </c>
-      <c r="D14">
-        <v>-0.4640914429777398</v>
-      </c>
-      <c r="E14">
-        <v>0.94904905361909087</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>20.657121929332629</v>
-      </c>
-      <c r="C15">
-        <v>15.842983732143431</v>
-      </c>
-      <c r="D15">
-        <v>0.54200479336514373</v>
-      </c>
-      <c r="E15">
-        <v>0.94410502152609421</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
+      <c r="D3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
+      <c r="D6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +2025,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +2039,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +2053,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +2067,41 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
